--- a/electrode_fields.xlsx
+++ b/electrode_fields.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="U" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,10 @@
     <sheet name="T" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="V_2" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="V_3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="H" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="VO_2" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="VO_0" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="H2O" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="H" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -148,7 +151,7 @@
       <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
@@ -277,11 +280,253 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.0999999999999994</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -291,13 +536,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
@@ -391,7 +636,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -406,101 +651,101 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -519,7 +764,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -609,7 +854,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -628,7 +873,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
@@ -743,7 +988,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -762,7 +1007,7 @@
       <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
@@ -874,7 +1119,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -890,10 +1135,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
@@ -983,7 +1228,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -996,127 +1241,212 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.0999999999999994</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/electrode_fields.xlsx
+++ b/electrode_fields.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="U" sheetId="1" state="visible" r:id="rId2"/>
@@ -649,99 +649,138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>1</v>
+      <c r="A1" s="0" t="n">
+        <v>1.05982879</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1.0598434</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.05985776</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>1.0598722</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1.05988667</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="n">
+        <v>1.05983173</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1.05984627</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.05986064</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1.05987509</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.05988956</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
+      <c r="A3" s="0" t="n">
+        <v>1.05983464</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1.05984913</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.05986352</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1.05987798</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1.05989245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
+      <c r="A4" s="0" t="n">
+        <v>1.05983759</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1.059852</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.05986641</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1.05988088</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.05989535</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="A5" s="0" t="n">
+        <v>1.05984051</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1.05985488</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.05986931</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1.05988377</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1.05989825</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1001,29 +1040,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>0.5</v>
+      <c r="A1" s="0" t="n">
+        <v>0.999314432</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0.999382683</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.999451133</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>0.999519784</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>0.999588435</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1039,37 +1078,37 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="n">
+        <v>0.999328136</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.999396337</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.999464858</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.999533517</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.999602162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1.5</v>
+      <c r="A3" s="0" t="n">
+        <v>0.999341793</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.999410012</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.999478587</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.999547248</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.999615888</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1083,39 +1122,83 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>2</v>
+      <c r="A4" s="0" t="n">
+        <v>0.999355426</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.999423707</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.999492319</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.999560979</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.999629613</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
+      <c r="A5" s="0" t="n">
+        <v>0.999369049</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.999437415</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.999506052</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.999574707</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.999643338</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1135,94 +1218,94 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>0.5</v>
+      <c r="A1" s="0" t="n">
+        <v>0.200654221</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0.200588736</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.200523291</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>0.200457886</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>0.200392481</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0.5</v>
+      <c r="A2" s="0" t="n">
+        <v>0.200641135</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.20057564</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.200510209</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.200444806</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.200379399</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0.5</v>
+      <c r="A3" s="0" t="n">
+        <v>0.200628039</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.200562548</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.200497128</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.200431725</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.200366317</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.5</v>
+      <c r="A4" s="0" t="n">
+        <v>0.200614939</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.20054946</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.200484047</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.200418644</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.200353235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0.5</v>
+      <c r="A5" s="0" t="n">
+        <v>0.200601836</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.200536375</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.200470967</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.200405563</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.200340153</v>
       </c>
     </row>
   </sheetData>
@@ -1241,99 +1324,135 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>0.5</v>
+      <c r="A1" s="0" t="n">
+        <v>0.999304987</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0.999377871</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.999445886</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>0.999515023</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>0.999584627</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0.5</v>
+      <c r="A2" s="0" t="n">
+        <v>0.999319938</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.999391534</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.999459547</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.999528929</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.999598541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0.5</v>
+      <c r="A3" s="0" t="n">
+        <v>0.999334396</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.999404882</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.99947335</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.999542844</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.99961245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.5</v>
+      <c r="A4" s="0" t="n">
+        <v>0.999349497</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.99941844</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.999487193</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.999556784</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.999626363</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
+      <c r="A5" s="0" t="n">
+        <v>0.999363951</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.999432053</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.999501148</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.999570709</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.999640264</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1350,99 +1469,129 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>0.5</v>
+      <c r="A1" s="0" t="n">
+        <v>0.200714624</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0.20064382</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.200572005</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>0.200500383</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>0.200428821</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0.5</v>
+      <c r="A2" s="0" t="n">
+        <v>0.200700541</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.200629472</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.20055765</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.20048607</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.200414503</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0.5</v>
+      <c r="A3" s="0" t="n">
+        <v>0.200686357</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.200615059</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.200543322</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.200471758</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.200400182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0.5</v>
+      <c r="A4" s="0" t="n">
+        <v>0.200672302</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.200600687</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.200529001</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.200457449</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.200385862</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
+      <c r="A5" s="0" t="n">
+        <v>0.200658115</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.200586325</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.200514701</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.200443136</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.200371537</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
